--- a/hardware/软硬件接口说明.xlsx
+++ b/hardware/软硬件接口说明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\zhaohuiCatToilet\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C530B55D-BE3A-41AE-A09A-91495FE07C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D19A42-264A-4370-98AF-7E644792E279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="134">
   <si>
     <t>Pin No.</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>ADC2</t>
-  </si>
-  <si>
-    <t>限位开关</t>
   </si>
   <si>
     <t>IO14/MTMS</t>
@@ -686,31 +683,143 @@
     <t>使用 ADC 或睡眠模式下使用 Wi-Fi 和蓝牙时，请不要使用 GPIO36 和 GPIO39 的中断。有关问题的详细描述，请参考 ESP32 ECO 和 Bug 解决方法 &gt; 中的第 3.11 节。</t>
   </si>
   <si>
-    <t>红外开关</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>热释电红外传感器</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>预留开关</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯光</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留开关（RESET）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>自动猫砂盆主板软硬件接口</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>V2.0  20240901</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P14</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P16</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P22</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P26</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P19</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>限位开关1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>限位开关2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留开关2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯光1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯光3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P18</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯光2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留开关3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P21</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外开关1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外开关2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留开关4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留开关5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>P23</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留开关1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -981,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1029,19 +1138,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1240,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE0C4A-036F-4562-B1F7-0EA6A0944B75}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -1261,553 +1369,208 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="C6" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
+      <c r="E10" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="32"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
+      <c r="K25" s="31"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
+      <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
+      <c r="K27" s="31"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="32"/>
+      <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="32"/>
+      <c r="K29" s="31"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
+      <c r="K30" s="31"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="32"/>
+      <c r="K31" s="31"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="32"/>
+      <c r="K32" s="31"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="32"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="32"/>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="32"/>
+      <c r="K35" s="31"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="32"/>
+      <c r="K36" s="31"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="32"/>
+      <c r="K37" s="31"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="32"/>
+      <c r="K38" s="31"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="32"/>
+      <c r="K39" s="31"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="32"/>
+      <c r="K40" s="31"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="32"/>
+      <c r="K41" s="31"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="30"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="32"/>
+      <c r="K42" s="31"/>
     </row>
     <row r="43" spans="1:11" ht="13" thickBot="1">
-      <c r="A43" s="33"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="35"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1821,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -1836,7 +1599,7 @@
     <col min="6" max="7" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.9" customHeight="1">
+    <row r="1" spans="1:9" ht="14.9" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1862,7 +1625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.9" customHeight="1">
+    <row r="2" spans="1:9" ht="14.9" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1877,7 +1640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.9" customHeight="1">
+    <row r="3" spans="1:9" ht="14.9" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1892,7 +1655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.9" customHeight="1">
+    <row r="4" spans="1:9" ht="14.9" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1907,7 +1670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.9" customHeight="1">
+    <row r="5" spans="1:9" ht="14.9" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1927,8 +1690,11 @@
       <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.9" customHeight="1">
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.9" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1946,10 +1712,16 @@
         <v>17</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.9" customHeight="1">
+        <v>99</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.9" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1967,10 +1739,13 @@
         <v>17</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.9" customHeight="1">
+        <v>127</v>
+      </c>
+      <c r="I7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.9" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1987,11 +1762,14 @@
       <c r="F8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.9" customHeight="1">
+      <c r="G8" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.9" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2008,8 +1786,11 @@
       <c r="G9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.9" customHeight="1">
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.9" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2026,8 +1807,11 @@
       <c r="G10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.9" customHeight="1">
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.9" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2042,10 +1826,13 @@
       </c>
       <c r="E11" s="3"/>
       <c r="G11" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.9" customHeight="1">
+        <v>123</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.9" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2060,13 +1847,13 @@
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.9" customHeight="1">
+    </row>
+    <row r="13" spans="1:9" ht="14.9" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2081,15 +1868,18 @@
       </c>
       <c r="E13" s="3"/>
       <c r="G13" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.9" customHeight="1">
+        <v>116</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.9" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>15</v>
@@ -2098,21 +1888,24 @@
         <v>32</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="G14" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.9" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.9" customHeight="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>15</v>
@@ -2121,21 +1914,24 @@
         <v>32</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.9" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.9" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4" t="s">
@@ -2145,12 +1941,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.9" customHeight="1">
+    <row r="17" spans="1:9" ht="14.9" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>15</v>
@@ -2159,123 +1955,126 @@
         <v>32</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.9" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.9" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="F18" t="s">
         <v>43</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.9" customHeight="1">
+    </row>
+    <row r="19" spans="1:9" ht="14.9" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.9" customHeight="1">
+    </row>
+    <row r="20" spans="1:9" ht="14.9" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.9" customHeight="1">
+    </row>
+    <row r="21" spans="1:9" ht="14.9" customHeight="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>51</v>
-      </c>
       <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.9" customHeight="1">
+    </row>
+    <row r="22" spans="1:9" ht="14.9" customHeight="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>53</v>
-      </c>
       <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.9" customHeight="1">
+    </row>
+    <row r="23" spans="1:9" ht="14.9" customHeight="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>55</v>
-      </c>
       <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.9" customHeight="1">
+    </row>
+    <row r="24" spans="1:9" ht="14.9" customHeight="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>15</v>
@@ -2284,21 +2083,24 @@
         <v>32</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.9" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.9" customHeight="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>15</v>
@@ -2307,21 +2109,24 @@
         <v>32</v>
       </c>
       <c r="E25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
         <v>59</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.9" customHeight="1">
+      <c r="I25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.9" customHeight="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>15</v>
@@ -2331,18 +2136,21 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.9" customHeight="1">
+        <v>60</v>
+      </c>
+      <c r="I26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.9" customHeight="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>15</v>
@@ -2351,180 +2159,207 @@
         <v>32</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.9" customHeight="1">
+        <v>115</v>
+      </c>
+      <c r="I27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.9" customHeight="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="3"/>
       <c r="G28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.9" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.9" customHeight="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" s="3"/>
       <c r="G29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.9" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.9" customHeight="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="F30" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>71</v>
-      </c>
       <c r="G30" s="26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.9" customHeight="1">
+        <v>118</v>
+      </c>
+      <c r="I30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.9" customHeight="1">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="F31" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="24" t="s">
-        <v>74</v>
-      </c>
       <c r="G31" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.9" customHeight="1">
+    <row r="32" spans="1:9" ht="14.9" customHeight="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>76</v>
-      </c>
       <c r="G32" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="14.9" customHeight="1">
+        <v>121</v>
+      </c>
+      <c r="I32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.9" customHeight="1">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.9" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.9" customHeight="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>79</v>
-      </c>
       <c r="G34" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.9" customHeight="1">
+        <v>124</v>
+      </c>
+      <c r="I34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.9" customHeight="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G35" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.9" customHeight="1">
+      <c r="I35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.9" customHeight="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="14.9" customHeight="1">
+        <v>81</v>
+      </c>
+      <c r="I36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.9" customHeight="1">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.9" customHeight="1">
+      <c r="G37" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.9" customHeight="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="F38" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="23" t="s">
-        <v>89</v>
-      </c>
       <c r="G38" s="26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="14.9" customHeight="1">
+        <v>130</v>
+      </c>
+      <c r="I38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.9" customHeight="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4" t="s">
@@ -2534,12 +2369,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.9" customHeight="1">
+    <row r="40" spans="1:9" ht="14.9" customHeight="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4" t="s">
@@ -2549,44 +2384,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.9" customHeight="1">
+    <row r="41" spans="1:9" ht="14.9" customHeight="1">
       <c r="A41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.9" customHeight="1">
+      <c r="A42" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.9" customHeight="1">
-      <c r="A42" s="19" t="s">
+    <row r="43" spans="1:9" ht="14.9" customHeight="1">
+      <c r="A43" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.9" customHeight="1">
-      <c r="A43" s="20" t="s">
+    <row r="44" spans="1:9" ht="14.9" customHeight="1">
+      <c r="A44" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.9" customHeight="1">
-      <c r="A44" s="20" t="s">
+    <row r="45" spans="1:9" ht="14.9" customHeight="1">
+      <c r="A45" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.9" customHeight="1">
-      <c r="A45" s="20" t="s">
+    <row r="46" spans="1:9" ht="14.9" customHeight="1">
+      <c r="A46" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.9" customHeight="1">
-      <c r="A46" s="20" t="s">
+    <row r="47" spans="1:9" ht="14.9" customHeight="1">
+      <c r="A47" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.9" customHeight="1">
-      <c r="A47" s="20" t="s">
+    <row r="48" spans="1:9" ht="14.9" customHeight="1">
+      <c r="A48" s="21" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="14.9" customHeight="1">
-      <c r="A48" s="21" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
